--- a/006.xlsx
+++ b/006.xlsx
@@ -509,7 +509,7 @@
     <t>INLVP</t>
   </si>
   <si>
-    <t>M</t>
+    <t>INM</t>
   </si>
   <si>
     <t>INMCY</t>
@@ -536,7 +536,7 @@
     <t>2020-06-30</t>
   </si>
   <si>
-    <t>006_s_IN_2001_2016_cl_inmorth.ipynb</t>
+    <t>006_s_IN_2001_2016_cl_MOSPI.ipynb</t>
   </si>
   <si>
     <t>notebook_name</t>
@@ -578,7 +578,7 @@
     <t>006</t>
   </si>
   <si>
-    <t>in_s_IN_2001_2016_cl_inmorth.xlsx</t>
+    <t>in_s_IN_2001_2016_cl_MOSPI.xlsx</t>
   </si>
   <si>
     <t>006.xlsx</t>
